--- a/MainTop/05.02.2025/таня 2 нед с 20.01.2025 по 05.02.2025/shk-excel.xlsx
+++ b/MainTop/05.02.2025/таня 2 нед с 20.01.2025 по 05.02.2025/shk-excel.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3276A93-2809-4BD3-82E5-8B2EEAB981F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ABE8F40-DDC1-4D43-AE66-5F078D274C0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="116">
   <si>
     <t>Баркод товара</t>
   </si>
@@ -29,13 +29,22 @@
     <t>Срок годности</t>
   </si>
   <si>
-    <t>WB_1308181685</t>
-  </si>
-  <si>
-    <t>WB_1308181686</t>
-  </si>
-  <si>
-    <t>WB_1308181715</t>
+    <t>WB_1310323893</t>
+  </si>
+  <si>
+    <t>WB_1310323894</t>
+  </si>
+  <si>
+    <t>WB_1310323895</t>
+  </si>
+  <si>
+    <t>WB_1310323896</t>
+  </si>
+  <si>
+    <t>WB_1310323897</t>
+  </si>
+  <si>
+    <t>WB_1310323898</t>
   </si>
   <si>
     <t>OZN1522019568</t>
@@ -47,9 +56,6 @@
     <t>OZN1738651684</t>
   </si>
   <si>
-    <t>OZN1750741073</t>
-  </si>
-  <si>
     <t>OZN1625046385</t>
   </si>
   <si>
@@ -296,9 +302,6 @@
     <t>OZN1506318949</t>
   </si>
   <si>
-    <t>OZN1506319229</t>
-  </si>
-  <si>
     <t>OZN1506319495</t>
   </si>
   <si>
@@ -324,6 +327,42 @@
   </si>
   <si>
     <t>OZN1532936711</t>
+  </si>
+  <si>
+    <t>OZN1137418791</t>
+  </si>
+  <si>
+    <t>OZN1137421126</t>
+  </si>
+  <si>
+    <t>OZN1137422959</t>
+  </si>
+  <si>
+    <t>OZN1137425483</t>
+  </si>
+  <si>
+    <t>OZN1561295582</t>
+  </si>
+  <si>
+    <t>OZN1564144981</t>
+  </si>
+  <si>
+    <t>OZN1564132235</t>
+  </si>
+  <si>
+    <t>OZN1564143276</t>
+  </si>
+  <si>
+    <t>OZN1564150584</t>
+  </si>
+  <si>
+    <t>OZN1564133921</t>
+  </si>
+  <si>
+    <t>OZN1564129445</t>
+  </si>
+  <si>
+    <t>OZN1564149986</t>
   </si>
 </sst>
 </file>
@@ -338,7 +377,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -363,8 +402,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -372,14 +423,32 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -656,10 +725,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D97"/>
+  <dimension ref="A1:D107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="G63" sqref="G63"/>
+    <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
+      <selection activeCell="G83" sqref="G83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -679,8 +748,8 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>7</v>
+      <c r="A2" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="B2" s="1">
         <v>45</v>
@@ -690,8 +759,8 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>8</v>
+      <c r="A3" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="B3" s="1">
         <v>27</v>
@@ -701,8 +770,8 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>9</v>
+      <c r="A4" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="B4" s="1">
         <v>25</v>
@@ -712,19 +781,19 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>10</v>
+      <c r="A5" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="B5" s="1">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C5" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>11</v>
+      <c r="A6" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="B6" s="1">
         <v>17</v>
@@ -734,8 +803,8 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>12</v>
+      <c r="A7" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="B7" s="1">
         <v>17</v>
@@ -745,8 +814,8 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>13</v>
+      <c r="A8" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="B8" s="1">
         <v>17</v>
@@ -756,19 +825,19 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="A9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="1">
         <v>14</v>
       </c>
-      <c r="B9" s="1">
-        <v>17</v>
-      </c>
       <c r="C9" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>15</v>
+      <c r="A10" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="B10" s="1">
         <v>14</v>
@@ -778,19 +847,19 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>16</v>
+      <c r="A11" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="B11" s="1">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C11" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>17</v>
+      <c r="A12" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="B12" s="1">
         <v>13</v>
@@ -800,8 +869,8 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>18</v>
+      <c r="A13" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="B13" s="1">
         <v>13</v>
@@ -811,19 +880,19 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>19</v>
+      <c r="A14" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="B14" s="1">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C14" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>20</v>
+      <c r="A15" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="B15" s="1">
         <v>10</v>
@@ -833,19 +902,19 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16" s="1">
-        <v>10</v>
+      <c r="A16" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" s="2">
+        <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>22</v>
+      <c r="A17" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="B17" s="2">
         <v>9</v>
@@ -855,19 +924,19 @@
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>23</v>
+      <c r="A18" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="B18" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>24</v>
+      <c r="A19" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="B19" s="2">
         <v>8</v>
@@ -877,8 +946,8 @@
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>25</v>
+      <c r="A20" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="B20" s="2">
         <v>8</v>
@@ -888,8 +957,8 @@
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>26</v>
+      <c r="A21" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="B21" s="2">
         <v>8</v>
@@ -899,8 +968,8 @@
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>27</v>
+      <c r="A22" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="B22" s="2">
         <v>8</v>
@@ -910,19 +979,19 @@
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>28</v>
+      <c r="A23" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="B23" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C23" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>29</v>
+      <c r="A24" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="B24" s="2">
         <v>7</v>
@@ -932,19 +1001,19 @@
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>30</v>
+      <c r="A25" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="B25" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>31</v>
+      <c r="A26" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="B26" s="2">
         <v>6</v>
@@ -954,8 +1023,8 @@
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>32</v>
+      <c r="A27" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="B27" s="2">
         <v>6</v>
@@ -965,8 +1034,8 @@
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>33</v>
+      <c r="A28" s="2" t="s">
+        <v>36</v>
       </c>
       <c r="B28" s="2">
         <v>6</v>
@@ -976,8 +1045,8 @@
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>34</v>
+      <c r="A29" s="2" t="s">
+        <v>37</v>
       </c>
       <c r="B29" s="2">
         <v>6</v>
@@ -987,8 +1056,8 @@
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>35</v>
+      <c r="A30" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="B30" s="2">
         <v>6</v>
@@ -998,8 +1067,8 @@
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>36</v>
+      <c r="A31" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="B31" s="2">
         <v>6</v>
@@ -1009,8 +1078,8 @@
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>37</v>
+      <c r="A32" s="2" t="s">
+        <v>40</v>
       </c>
       <c r="B32" s="2">
         <v>6</v>
@@ -1020,19 +1089,19 @@
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>38</v>
+      <c r="A33" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="B33" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C33" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>39</v>
+      <c r="A34" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="B34" s="2">
         <v>5</v>
@@ -1042,8 +1111,8 @@
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>40</v>
+      <c r="A35" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="B35" s="2">
         <v>5</v>
@@ -1053,8 +1122,8 @@
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>41</v>
+      <c r="A36" s="2" t="s">
+        <v>44</v>
       </c>
       <c r="B36" s="2">
         <v>5</v>
@@ -1064,8 +1133,8 @@
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>42</v>
+      <c r="A37" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="B37" s="2">
         <v>5</v>
@@ -1075,8 +1144,8 @@
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>43</v>
+      <c r="A38" s="2" t="s">
+        <v>46</v>
       </c>
       <c r="B38" s="2">
         <v>5</v>
@@ -1086,19 +1155,19 @@
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>44</v>
+      <c r="A39" s="2" t="s">
+        <v>47</v>
       </c>
       <c r="B39" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C39" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>45</v>
+      <c r="A40" s="2" t="s">
+        <v>48</v>
       </c>
       <c r="B40" s="2">
         <v>4</v>
@@ -1108,8 +1177,8 @@
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>46</v>
+      <c r="A41" s="2" t="s">
+        <v>49</v>
       </c>
       <c r="B41" s="2">
         <v>4</v>
@@ -1119,8 +1188,8 @@
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>47</v>
+      <c r="A42" s="2" t="s">
+        <v>50</v>
       </c>
       <c r="B42" s="2">
         <v>4</v>
@@ -1130,8 +1199,8 @@
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>48</v>
+      <c r="A43" s="2" t="s">
+        <v>51</v>
       </c>
       <c r="B43" s="2">
         <v>4</v>
@@ -1141,8 +1210,8 @@
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>49</v>
+      <c r="A44" s="2" t="s">
+        <v>52</v>
       </c>
       <c r="B44" s="2">
         <v>4</v>
@@ -1152,19 +1221,19 @@
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>50</v>
+      <c r="A45" s="2" t="s">
+        <v>53</v>
       </c>
       <c r="B45" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C45" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>51</v>
+      <c r="A46" s="2" t="s">
+        <v>54</v>
       </c>
       <c r="B46" s="2">
         <v>3</v>
@@ -1174,8 +1243,8 @@
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>52</v>
+      <c r="A47" s="2" t="s">
+        <v>55</v>
       </c>
       <c r="B47" s="2">
         <v>3</v>
@@ -1185,8 +1254,8 @@
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>53</v>
+      <c r="A48" s="2" t="s">
+        <v>56</v>
       </c>
       <c r="B48" s="2">
         <v>3</v>
@@ -1196,8 +1265,8 @@
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>54</v>
+      <c r="A49" s="2" t="s">
+        <v>57</v>
       </c>
       <c r="B49" s="2">
         <v>3</v>
@@ -1207,8 +1276,8 @@
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>55</v>
+      <c r="A50" s="2" t="s">
+        <v>58</v>
       </c>
       <c r="B50" s="2">
         <v>3</v>
@@ -1218,8 +1287,8 @@
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>56</v>
+      <c r="A51" s="2" t="s">
+        <v>59</v>
       </c>
       <c r="B51" s="2">
         <v>3</v>
@@ -1229,8 +1298,8 @@
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>57</v>
+      <c r="A52" s="2" t="s">
+        <v>60</v>
       </c>
       <c r="B52" s="2">
         <v>3</v>
@@ -1240,19 +1309,19 @@
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>58</v>
+      <c r="A53" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="B53" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C53" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>59</v>
+      <c r="A54" s="2" t="s">
+        <v>62</v>
       </c>
       <c r="B54" s="2">
         <v>2</v>
@@ -1262,8 +1331,8 @@
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>60</v>
+      <c r="A55" s="2" t="s">
+        <v>63</v>
       </c>
       <c r="B55" s="2">
         <v>2</v>
@@ -1273,8 +1342,8 @@
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>61</v>
+      <c r="A56" s="2" t="s">
+        <v>64</v>
       </c>
       <c r="B56" s="2">
         <v>2</v>
@@ -1284,8 +1353,8 @@
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>62</v>
+      <c r="A57" s="2" t="s">
+        <v>65</v>
       </c>
       <c r="B57" s="2">
         <v>2</v>
@@ -1295,8 +1364,8 @@
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>63</v>
+      <c r="A58" s="2" t="s">
+        <v>66</v>
       </c>
       <c r="B58" s="2">
         <v>2</v>
@@ -1306,8 +1375,8 @@
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>64</v>
+      <c r="A59" s="2" t="s">
+        <v>67</v>
       </c>
       <c r="B59" s="2">
         <v>2</v>
@@ -1317,8 +1386,8 @@
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>65</v>
+      <c r="A60" s="2" t="s">
+        <v>68</v>
       </c>
       <c r="B60" s="2">
         <v>2</v>
@@ -1328,8 +1397,8 @@
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>66</v>
+      <c r="A61" s="2" t="s">
+        <v>69</v>
       </c>
       <c r="B61" s="2">
         <v>2</v>
@@ -1339,8 +1408,8 @@
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>67</v>
+      <c r="A62" s="2" t="s">
+        <v>70</v>
       </c>
       <c r="B62" s="2">
         <v>2</v>
@@ -1350,8 +1419,8 @@
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>68</v>
+      <c r="A63" s="2" t="s">
+        <v>71</v>
       </c>
       <c r="B63" s="2">
         <v>2</v>
@@ -1361,19 +1430,19 @@
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>69</v>
+      <c r="A64" s="2" t="s">
+        <v>72</v>
       </c>
       <c r="B64" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C64" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>70</v>
+      <c r="A65" s="2" t="s">
+        <v>73</v>
       </c>
       <c r="B65" s="2">
         <v>1</v>
@@ -1383,8 +1452,8 @@
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>71</v>
+      <c r="A66" s="2" t="s">
+        <v>74</v>
       </c>
       <c r="B66" s="2">
         <v>1</v>
@@ -1394,8 +1463,8 @@
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>72</v>
+      <c r="A67" s="2" t="s">
+        <v>75</v>
       </c>
       <c r="B67" s="2">
         <v>1</v>
@@ -1405,8 +1474,8 @@
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>73</v>
+      <c r="A68" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="B68" s="2">
         <v>1</v>
@@ -1416,8 +1485,8 @@
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>74</v>
+      <c r="A69" s="2" t="s">
+        <v>77</v>
       </c>
       <c r="B69" s="2">
         <v>1</v>
@@ -1427,8 +1496,8 @@
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>75</v>
+      <c r="A70" s="2" t="s">
+        <v>78</v>
       </c>
       <c r="B70" s="2">
         <v>1</v>
@@ -1438,8 +1507,8 @@
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>76</v>
+      <c r="A71" s="2" t="s">
+        <v>79</v>
       </c>
       <c r="B71" s="2">
         <v>1</v>
@@ -1449,8 +1518,8 @@
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>77</v>
+      <c r="A72" s="2" t="s">
+        <v>80</v>
       </c>
       <c r="B72" s="2">
         <v>1</v>
@@ -1460,8 +1529,8 @@
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>78</v>
+      <c r="A73" s="2" t="s">
+        <v>81</v>
       </c>
       <c r="B73" s="2">
         <v>1</v>
@@ -1471,267 +1540,377 @@
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>79</v>
-      </c>
-      <c r="B74" s="2">
-        <v>1</v>
+      <c r="A74" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B74" s="3">
+        <v>28</v>
       </c>
       <c r="C74" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>80</v>
+      <c r="A75" s="3" t="s">
+        <v>83</v>
       </c>
       <c r="B75" s="3">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="C75" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>81</v>
+      <c r="A76" s="3" t="s">
+        <v>84</v>
       </c>
       <c r="B76" s="3">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C76" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>82</v>
+      <c r="A77" s="3" t="s">
+        <v>85</v>
       </c>
       <c r="B77" s="3">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C77" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>83</v>
+      <c r="A78" s="3" t="s">
+        <v>86</v>
       </c>
       <c r="B78" s="3">
+        <v>6</v>
+      </c>
+      <c r="C78" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B79" s="3">
+        <v>6</v>
+      </c>
+      <c r="C79" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B80" s="3">
+        <v>6</v>
+      </c>
+      <c r="C80" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B81" s="3">
+        <v>6</v>
+      </c>
+      <c r="C81" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B82" s="3">
+        <v>6</v>
+      </c>
+      <c r="C82" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B83" s="3">
+        <v>4</v>
+      </c>
+      <c r="C83" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B84" s="3">
+        <v>4</v>
+      </c>
+      <c r="C84" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B85" s="3">
+        <v>2</v>
+      </c>
+      <c r="C85" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B86" s="3">
+        <v>2</v>
+      </c>
+      <c r="C86" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B87" s="3">
+        <v>2</v>
+      </c>
+      <c r="C87" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B88" s="3">
+        <v>2</v>
+      </c>
+      <c r="C88" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B89" s="3">
+        <v>2</v>
+      </c>
+      <c r="C89" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B90" s="3">
+        <v>2</v>
+      </c>
+      <c r="C90" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B91" s="3">
+        <v>2</v>
+      </c>
+      <c r="C91" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B92" s="3">
+        <v>2</v>
+      </c>
+      <c r="C92" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B93" s="3">
+        <v>2</v>
+      </c>
+      <c r="C93" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B94" s="3">
+        <v>2</v>
+      </c>
+      <c r="C94" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B95" s="3">
+        <v>2</v>
+      </c>
+      <c r="C95" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B96" s="1">
+        <v>2</v>
+      </c>
+      <c r="C96" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B97" s="1">
+        <v>8</v>
+      </c>
+      <c r="C97" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B98" s="1">
+        <v>8</v>
+      </c>
+      <c r="C98" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B99" s="1">
+        <v>8</v>
+      </c>
+      <c r="C99" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="B100" s="1">
+        <v>4</v>
+      </c>
+      <c r="C100" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="B101" s="1">
+        <v>2</v>
+      </c>
+      <c r="C101" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="B102" s="1">
         <v>12</v>
       </c>
-      <c r="C78" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>84</v>
-      </c>
-      <c r="B79" s="3">
-        <v>6</v>
-      </c>
-      <c r="C79" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>85</v>
-      </c>
-      <c r="B80" s="3">
-        <v>6</v>
-      </c>
-      <c r="C80" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>86</v>
-      </c>
-      <c r="B81" s="3">
-        <v>6</v>
-      </c>
-      <c r="C81" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>87</v>
-      </c>
-      <c r="B82" s="3">
-        <v>6</v>
-      </c>
-      <c r="C82" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
-        <v>88</v>
-      </c>
-      <c r="B83" s="3">
-        <v>6</v>
-      </c>
-      <c r="C83" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
-        <v>89</v>
-      </c>
-      <c r="B84" s="3">
-        <v>4</v>
-      </c>
-      <c r="C84" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
-        <v>90</v>
-      </c>
-      <c r="B85" s="3">
-        <v>4</v>
-      </c>
-      <c r="C85" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
-        <v>91</v>
-      </c>
-      <c r="B86" s="3">
-        <v>2</v>
-      </c>
-      <c r="C86" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
-        <v>92</v>
-      </c>
-      <c r="B87" s="3">
-        <v>2</v>
-      </c>
-      <c r="C87" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
-        <v>93</v>
-      </c>
-      <c r="B88" s="3">
-        <v>2</v>
-      </c>
-      <c r="C88" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
-        <v>94</v>
-      </c>
-      <c r="B89" s="3">
-        <v>2</v>
-      </c>
-      <c r="C89" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
-        <v>95</v>
-      </c>
-      <c r="B90" s="3">
-        <v>2</v>
-      </c>
-      <c r="C90" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
-        <v>96</v>
-      </c>
-      <c r="B91" s="3">
-        <v>2</v>
-      </c>
-      <c r="C91" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
-        <v>97</v>
-      </c>
-      <c r="B92" s="3">
-        <v>2</v>
-      </c>
-      <c r="C92" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
-        <v>98</v>
-      </c>
-      <c r="B93" s="3">
-        <v>2</v>
-      </c>
-      <c r="C93" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
-        <v>99</v>
-      </c>
-      <c r="B94" s="3">
-        <v>2</v>
-      </c>
-      <c r="C94" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
-        <v>100</v>
-      </c>
-      <c r="B95" s="3">
-        <v>2</v>
-      </c>
-      <c r="C95" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
-        <v>101</v>
-      </c>
-      <c r="B96" s="3">
-        <v>2</v>
-      </c>
-      <c r="C96" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
-        <v>102</v>
-      </c>
-      <c r="B97" s="3">
-        <v>2</v>
-      </c>
-      <c r="C97" t="s">
-        <v>6</v>
+      <c r="C102" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="B103" s="1">
+        <v>18</v>
+      </c>
+      <c r="C103" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="B104" s="1">
+        <v>4</v>
+      </c>
+      <c r="C104" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="B105" s="1">
+        <v>8</v>
+      </c>
+      <c r="C105" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="B106" s="1">
+        <v>12</v>
+      </c>
+      <c r="C106" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="B107" s="1">
+        <v>6</v>
+      </c>
+      <c r="C107" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
